--- a/6/MatModeling/lab2/lab2.xlsx
+++ b/6/MatModeling/lab2/lab2.xlsx
@@ -288,8 +288,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.260828801800112"/>
-          <c:y val="0.0326848249027237"/>
+          <c:x val="0.260845105638205"/>
+          <c:y val="0.0327996442072493"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -368,8 +368,8 @@
             <c:trendlineType val="linear"/>
             <c:forward val="0"/>
             <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -384,20 +384,6 @@
             <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
@@ -584,11 +570,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="72047276"/>
-        <c:axId val="58239087"/>
+        <c:axId val="76279420"/>
+        <c:axId val="38908439"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72047276"/>
+        <c:axId val="76279420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58239087"/>
+        <c:crossAx val="38908439"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58239087"/>
+        <c:axId val="38908439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -663,7 +649,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72047276"/>
+        <c:crossAx val="76279420"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -716,15 +702,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>334800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:colOff>317880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>386640</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:colOff>369360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -732,8 +718,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1480680" y="3555360"/>
-        <a:ext cx="5759280" cy="3237840"/>
+        <a:off x="1463760" y="3371760"/>
+        <a:ext cx="5758920" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
